--- a/SAP-purchase/src/main/resources/static/purchaseOrder-template.xlsx
+++ b/SAP-purchase/src/main/resources/static/purchaseOrder-template.xlsx
@@ -16,20 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
-  <si>
-    <r>
-      <t xml:space="preserve">采购订单 </t>
-    </r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <b/>
+        <sz val="24"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>purchase order</t>
+      <t xml:space="preserve">采购订单 </t>
     </r>
     <r>
       <rPr>
@@ -48,9 +46,15 @@
     <t>单据编号：</t>
   </si>
   <si>
+    <t>{{code}}</t>
+  </si>
+  <si>
     <t>单据时间：</t>
   </si>
   <si>
+    <t>{{data}}</t>
+  </si>
+  <si>
     <t>单位：元</t>
   </si>
   <si>
@@ -63,33 +67,66 @@
     <t>公司名称：</t>
   </si>
   <si>
+    <t>{{supplier_company}}</t>
+  </si>
+  <si>
+    <t>{{company}}</t>
+  </si>
+  <si>
     <t>联系人：</t>
   </si>
   <si>
+    <t>{{supplier_contact}}</t>
+  </si>
+  <si>
+    <t>{{contact}}</t>
+  </si>
+  <si>
     <t>联系电话：</t>
   </si>
   <si>
+    <t>{{supplier_tel}}</t>
+  </si>
+  <si>
+    <t>{{tel}}</t>
+  </si>
+  <si>
     <t>邮箱：</t>
   </si>
   <si>
-    <t>传真：</t>
+    <t>{{supplier_email}}</t>
+  </si>
+  <si>
+    <t>{{email}}</t>
   </si>
   <si>
     <t>地址：</t>
   </si>
   <si>
+    <t>{{supplier_address}}</t>
+  </si>
+  <si>
+    <t>{{address}}</t>
+  </si>
+  <si>
     <t>交易编号：</t>
   </si>
   <si>
+    <t>{{tx_id}}</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
-    <t>物料编码</t>
+    <t>物料条码</t>
   </si>
   <si>
     <t>物料名称</t>
   </si>
   <si>
+    <t>批号</t>
+  </si>
+  <si>
     <t>封装形式</t>
   </si>
   <si>
@@ -111,7 +148,47 @@
     <t>税后合计</t>
   </si>
   <si>
-    <t>备注</t>
+    <t xml:space="preserve">{{$fe: dataList t.index </t>
+  </si>
+  <si>
+    <t>t.mcode</t>
+  </si>
+  <si>
+    <t>t.name</t>
+  </si>
+  <si>
+    <t>t.lot</t>
+  </si>
+  <si>
+    <t>t.param</t>
+  </si>
+  <si>
+    <t>t.number</t>
+  </si>
+  <si>
+    <t>t.price</t>
+  </si>
+  <si>
+    <t>t.tax</t>
+  </si>
+  <si>
+    <t>t.allTax</t>
+  </si>
+  <si>
+    <t>t.allPrice</t>
+  </si>
+  <si>
+    <t>t.totalPrice}}</t>
+  </si>
+  <si>
+    <t>备注：</t>
+  </si>
+  <si>
+    <t>{{remark}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       
+       （章印）</t>
   </si>
   <si>
     <t>总计：</t>
@@ -120,13 +197,25 @@
     <t>税率：</t>
   </si>
   <si>
+    <t>{{tax}}</t>
+  </si>
+  <si>
     <t>税额：</t>
   </si>
   <si>
+    <t>{{taxPrice}}</t>
+  </si>
+  <si>
     <t>税前合计：</t>
   </si>
   <si>
+    <t>{{allPrice}}</t>
+  </si>
+  <si>
     <t>税后合计：</t>
+  </si>
+  <si>
+    <t>{{totalPrice}}</t>
   </si>
 </sst>
 </file>
@@ -134,12 +223,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +253,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -172,6 +305,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,7 +329,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -198,24 +354,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,54 +377,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,39 +390,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,13 +414,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.1"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,37 +528,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,144 +594,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -545,11 +608,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +669,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,45 +712,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -647,180 +725,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1171,17 +1264,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G1:S21"/>
+  <dimension ref="E1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="6" width="5.875" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="5" max="5" width="1.375" customWidth="1"/>
+    <col min="6" max="6" width="1.75" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="9.75" customWidth="1"/>
+    <col min="16" max="16" width="12.625" customWidth="1"/>
+    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="8.375" customWidth="1"/>
+    <col min="19" max="19" width="8.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:19">
@@ -1201,7 +1306,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" ht="25" customHeight="1" spans="7:19">
+    <row r="2" ht="21" customHeight="1" spans="7:19">
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1220,71 +1325,79 @@
       <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13" customHeight="1" spans="7:19">
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="7:19">
       <c r="G5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
     </row>
     <row r="6" ht="24" customHeight="1" spans="7:19">
       <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="5"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1292,18 +1405,22 @@
     </row>
     <row r="7" ht="24" customHeight="1" spans="7:19">
       <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="5"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O7" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1311,18 +1428,22 @@
     </row>
     <row r="8" ht="23" customHeight="1" spans="7:19">
       <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="5"/>
+      <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1330,171 +1451,277 @@
     </row>
     <row r="9" ht="24" customHeight="1" spans="7:19">
       <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="5"/>
+      <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="7:19">
+    <row r="10" ht="27" customHeight="1" spans="7:19">
       <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="5"/>
+      <c r="M10" s="4"/>
       <c r="N10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" ht="27" customHeight="1" spans="7:19">
+    <row r="11" ht="18" customHeight="1" spans="7:19">
       <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="7:14">
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="N12" s="8"/>
-    </row>
-    <row r="13" ht="18" customHeight="1"/>
-    <row r="14" ht="27" customHeight="1" spans="7:19">
-      <c r="G14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="9"/>
-    </row>
-    <row r="15" ht="23" customHeight="1" spans="8:19">
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="14:19">
+      <c r="H11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="7:19">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="7:19">
+      <c r="G13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="8"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="5:19">
+      <c r="E14" s="9"/>
+      <c r="G14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14" s="10"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="7:19">
+      <c r="G15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="7:19">
+      <c r="G16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="7:19">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="14:19">
+        <v>51</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="7:19">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
       <c r="N18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="14:19">
+        <v>53</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="7:19">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="14:19">
+        <v>55</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="7:19">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="14:19">
-      <c r="N21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="25">
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="O3:R3"/>
-    <mergeCell ref="H5:L5"/>
     <mergeCell ref="H6:L6"/>
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="H7:L7"/>
@@ -1506,18 +1733,18 @@
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="O10:S10"/>
     <mergeCell ref="H11:L11"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="R13:S13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="R14:S14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="H15:S15"/>
+    <mergeCell ref="O16:S16"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="O18:S18"/>
     <mergeCell ref="O19:S19"/>
     <mergeCell ref="O20:S20"/>
-    <mergeCell ref="O21:S21"/>
     <mergeCell ref="G1:S2"/>
+    <mergeCell ref="G16:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
